--- a/黑色/玻璃/data_input/纯碱开工率.xlsx
+++ b/黑色/玻璃/data_input/纯碱开工率.xlsx
@@ -11320,7 +11320,7 @@
         <v>90.8027</v>
       </c>
       <c r="C598" t="n">
-        <v>-212.9893</v>
+        <v>-213.1493</v>
       </c>
       <c r="D598" t="n">
         <v>-19.34</v>
@@ -11332,7 +11332,7 @@
         <v>84.93000000000001</v>
       </c>
       <c r="G598" t="n">
-        <v>-393.9882</v>
+        <v>-394.1482</v>
       </c>
     </row>
     <row r="599">
@@ -11343,10 +11343,10 @@
         <v>93.4864</v>
       </c>
       <c r="C599" t="n">
-        <v>-256.716</v>
+        <v>-239.092</v>
       </c>
       <c r="D599" t="n">
-        <v>16829.92</v>
+        <v>-20.87</v>
       </c>
       <c r="E599" t="n">
         <v>-8.5464</v>
@@ -11355,7 +11355,7 @@
         <v>84.94</v>
       </c>
       <c r="G599" t="n">
-        <v>-506.1963</v>
+        <v>-488.5723</v>
       </c>
     </row>
     <row r="600">
@@ -11363,7 +11363,9 @@
         <v>45961</v>
       </c>
       <c r="B600" t="inlineStr"/>
-      <c r="C600" t="inlineStr"/>
+      <c r="C600" t="n">
+        <v>-234.756</v>
+      </c>
       <c r="D600" t="inlineStr"/>
       <c r="E600" t="n">
         <v>-8.984400000000001</v>
